--- a/Code/Prep codes/test_dir/result.xlsx
+++ b/Code/Prep codes/test_dir/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="688">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -28,6 +28,258 @@
     <t xml:space="preserve">Affected</t>
   </si>
   <si>
+    <t xml:space="preserve">20211228_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211229_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211230_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220601_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220602_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220603_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220604_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220605_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220606_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220607_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220608_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220609_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220610_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220611_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220612_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220613_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220616_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220617_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220619_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220621_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220622_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220623_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220624_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220625_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220627_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220628_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220629_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220630_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220701_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220702_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220703_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220704_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220706_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220707_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220709_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220710_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220711_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220712_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220713_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220714_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220716_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220717_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220718_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220719_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220720_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220721_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220722_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220723_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220724_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220726_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220728_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220729_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220730_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220731_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220802_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220803_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220804_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220805_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220806_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220807_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220810_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220811_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220812_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220813_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220814_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220815_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220816_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220817_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220818_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220819_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220820_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220821_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220822_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220823_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220825_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220826_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220827_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220828_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220829_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220830_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220831_dengue_all</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220901_dengue_all</t>
   </si>
   <si>
@@ -166,7 +418,7 @@
     <t xml:space="preserve">20221029_dengue_all</t>
   </si>
   <si>
-    <t xml:space="preserve">202210301_dengue_all</t>
+    <t xml:space="preserve">20221031_dengue_all</t>
   </si>
   <si>
     <t xml:space="preserve">20221030_dengue_all</t>
@@ -1388,6 +1640,450 @@
   </si>
   <si>
     <t xml:space="preserve">20231226_dengue_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20190930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20191231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengue_20200130</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +2356,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B455"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1668,7 +2364,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1756,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,7 +2476,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,7 +2508,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,7 +2516,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,7 +2540,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +2580,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,7 +2588,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,7 +2596,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,7 +2604,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,7 +2612,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,7 +2636,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,7 +2644,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,7 +2660,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +2668,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +2676,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +2684,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,7 +2692,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2708,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2716,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,7 +2724,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,7 +2732,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,7 +2740,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2748,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2756,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2764,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2772,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,7 +2780,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,7 +2788,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,7 +2796,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,7 +2804,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2820,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2828,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,7 +2852,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,16 +2867,13 @@
       <c r="A63" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2897,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2905,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2913,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2945,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2953,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2961,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2977,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2985,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,7 +2993,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,7 +3001,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,7 +3017,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +3033,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +3041,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +3049,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +3057,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,7 +3065,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,7 +3073,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,7 +3081,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,7 +3089,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,7 +3097,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +3105,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +3113,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +3121,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +3129,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +3137,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +3145,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,7 +3153,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +3169,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +3177,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,7 +3185,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,7 +3193,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +3201,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,7 +3209,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,7 +3217,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +3225,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +3233,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,7 +3241,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +3249,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +3257,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +3265,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,7 +3273,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +3281,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,7 +3289,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,7 +3297,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,7 +3305,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +3313,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +3329,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +3337,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +3345,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +3353,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +3361,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +3369,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +3377,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +3385,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +3409,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,7 +3417,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +3425,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,7 +3433,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,7 +3441,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,7 +3465,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +3473,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +3481,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +3497,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +3577,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +3585,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +3601,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +3609,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,7 +3617,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +3625,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,7 +3633,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,7 +3641,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +3649,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,7 +3657,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,7 +3665,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3673,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +3681,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,7 +3697,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3713,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3737,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,7 +3793,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,7 +3809,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3841,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,7 +3865,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3937,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,7 +3945,7 @@
         <v>198</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,13 +4064,16 @@
       <c r="A213" s="0" t="s">
         <v>213</v>
       </c>
+      <c r="B213" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>214</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +4113,7 @@
         <v>219</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3617,7 +4313,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,7 +4369,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3681,7 +4377,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,7 +4385,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +4449,7 @@
         <v>261</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +4465,7 @@
         <v>263</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,7 +4497,7 @@
         <v>267</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,7 +4505,7 @@
         <v>268</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,19 +4592,25 @@
       <c r="A279" s="0" t="s">
         <v>279</v>
       </c>
+      <c r="B279" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>280</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>281</v>
       </c>
+      <c r="B281" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
@@ -3923,7 +4625,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +4633,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +4657,7 @@
         <v>287</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +4665,7 @@
         <v>288</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +4673,7 @@
         <v>289</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,7 +4681,7 @@
         <v>290</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,7 +4689,7 @@
         <v>291</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +4697,7 @@
         <v>292</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +4705,7 @@
         <v>293</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,7 +4713,7 @@
         <v>294</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,7 +4721,7 @@
         <v>295</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,23 +4729,20 @@
         <v>296</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>298</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4758,7 @@
         <v>300</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +4774,7 @@
         <v>302</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,7 +4782,7 @@
         <v>303</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4790,7 @@
         <v>304</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +4798,7 @@
         <v>305</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,7 +4806,7 @@
         <v>306</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,7 +4814,7 @@
         <v>307</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +4822,7 @@
         <v>308</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4830,7 @@
         <v>309</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4139,7 +4838,7 @@
         <v>310</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,20 +4862,23 @@
         <v>313</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>314</v>
       </c>
+      <c r="B314" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>315</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4886,7 @@
         <v>316</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4894,7 @@
         <v>317</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4902,7 @@
         <v>318</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4910,7 @@
         <v>319</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4918,7 @@
         <v>320</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4926,7 @@
         <v>321</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4934,7 @@
         <v>322</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4950,7 @@
         <v>324</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4958,7 @@
         <v>325</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,7 +4974,7 @@
         <v>327</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4982,7 @@
         <v>328</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4990,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4998,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +5006,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +5014,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +5030,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +5038,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +5046,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +5054,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +5062,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +5070,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +5078,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +5086,7 @@
         <v>341</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +5094,7 @@
         <v>342</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +5102,7 @@
         <v>343</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,20 +5118,23 @@
         <v>345</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>346</v>
       </c>
+      <c r="B346" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>347</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +5142,7 @@
         <v>348</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,20 +5150,23 @@
         <v>349</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>350</v>
       </c>
+      <c r="B350" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>351</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,7 +5174,7 @@
         <v>352</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,7 +5182,7 @@
         <v>353</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,7 +5198,7 @@
         <v>355</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +5206,7 @@
         <v>356</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,7 +5214,7 @@
         <v>357</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +5222,7 @@
         <v>358</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,7 +5230,7 @@
         <v>359</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,7 +5238,7 @@
         <v>360</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,44 +5246,41 @@
         <v>361</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>362</v>
       </c>
+      <c r="B362" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>364</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>366</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +5288,7 @@
         <v>367</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +5296,7 @@
         <v>368</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +5304,7 @@
         <v>369</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,7 +5312,7 @@
         <v>370</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,7 +5320,7 @@
         <v>371</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,7 +5328,7 @@
         <v>372</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +5336,7 @@
         <v>373</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +5344,7 @@
         <v>374</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +5352,7 @@
         <v>375</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,20 +5360,23 @@
         <v>376</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>377</v>
       </c>
+      <c r="B377" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>378</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +5384,7 @@
         <v>379</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +5392,7 @@
         <v>380</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,7 +5400,7 @@
         <v>381</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,13 +5415,16 @@
       <c r="A383" s="0" t="s">
         <v>383</v>
       </c>
+      <c r="B383" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>384</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,7 +5432,7 @@
         <v>385</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,7 +5440,7 @@
         <v>386</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,7 +5448,7 @@
         <v>387</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,7 +5456,7 @@
         <v>388</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4753,7 +5464,7 @@
         <v>389</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +5472,7 @@
         <v>390</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +5480,7 @@
         <v>391</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +5488,7 @@
         <v>392</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +5496,7 @@
         <v>393</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4793,7 +5504,7 @@
         <v>394</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +5512,7 @@
         <v>395</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,7 +5520,7 @@
         <v>396</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,23 +5528,20 @@
         <v>397</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>399</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,7 +5549,7 @@
         <v>400</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,7 +5557,7 @@
         <v>401</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +5565,7 @@
         <v>402</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,7 +5573,7 @@
         <v>403</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,7 +5581,7 @@
         <v>404</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,7 +5589,7 @@
         <v>405</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +5597,7 @@
         <v>406</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +5605,7 @@
         <v>407</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +5613,7 @@
         <v>408</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +5621,7 @@
         <v>409</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,7 +5629,7 @@
         <v>410</v>
       </c>
       <c r="B410" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,7 +5637,7 @@
         <v>411</v>
       </c>
       <c r="B411" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,20 +5645,23 @@
         <v>412</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>413</v>
       </c>
+      <c r="B413" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>414</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,7 +5669,7 @@
         <v>415</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +5677,7 @@
         <v>416</v>
       </c>
       <c r="B416" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,7 +5685,7 @@
         <v>417</v>
       </c>
       <c r="B417" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +5693,7 @@
         <v>418</v>
       </c>
       <c r="B418" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +5709,7 @@
         <v>420</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,7 +5717,7 @@
         <v>421</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5014,7 +5725,7 @@
         <v>422</v>
       </c>
       <c r="B422" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5733,7 @@
         <v>423</v>
       </c>
       <c r="B423" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,7 +5741,7 @@
         <v>424</v>
       </c>
       <c r="B424" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,7 +5749,7 @@
         <v>425</v>
       </c>
       <c r="B425" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +5757,7 @@
         <v>426</v>
       </c>
       <c r="B426" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,7 +5765,7 @@
         <v>427</v>
       </c>
       <c r="B427" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,7 +5773,7 @@
         <v>428</v>
       </c>
       <c r="B428" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,23 +5781,20 @@
         <v>429</v>
       </c>
       <c r="B429" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B430" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B431" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,7 +5802,7 @@
         <v>432</v>
       </c>
       <c r="B432" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,23 +5810,20 @@
         <v>433</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B434" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>435</v>
       </c>
       <c r="B435" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,7 +5831,7 @@
         <v>436</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,7 +5839,7 @@
         <v>437</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,7 +5847,7 @@
         <v>438</v>
       </c>
       <c r="B438" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5855,7 @@
         <v>439</v>
       </c>
       <c r="B439" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +5863,7 @@
         <v>440</v>
       </c>
       <c r="B440" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,7 +5871,7 @@
         <v>441</v>
       </c>
       <c r="B441" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5174,7 +5879,7 @@
         <v>442</v>
       </c>
       <c r="B442" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5887,7 @@
         <v>443</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,7 +5895,7 @@
         <v>444</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,23 +5903,20 @@
         <v>445</v>
       </c>
       <c r="B445" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B446" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>447</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,7 +5924,7 @@
         <v>448</v>
       </c>
       <c r="B448" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5230,7 +5932,7 @@
         <v>449</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,7 +5940,7 @@
         <v>450</v>
       </c>
       <c r="B450" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5948,7 @@
         <v>451</v>
       </c>
       <c r="B451" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,7 +5956,7 @@
         <v>452</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5964,7 @@
         <v>453</v>
       </c>
       <c r="B453" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,7 +5972,7 @@
         <v>454</v>
       </c>
       <c r="B454" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,9 +5980,1838 @@
         <v>455</v>
       </c>
       <c r="B455" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B502" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B503" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B504" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B505" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B506" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B507" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B508" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B509" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B510" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B512" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B513" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B515" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B516" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B517" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B518" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B519" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B520" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B521" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B522" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B523" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B524" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B525" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B527" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B528" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B529" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B530" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B531" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B532" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B533" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B534" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B535" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B536" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B537" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B538" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B539" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B540" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B541" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B542" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B543" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B544" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B545" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B546" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B547" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B549" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B550" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B551" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B552" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B553" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B554" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B555" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B556" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B566" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B568" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B569" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B570" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B571" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B573" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B574" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B575" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B579" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B580" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B582" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B583" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B584" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B589" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B591" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B593" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B597" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B599" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B600" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B601" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B603" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B604" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B605" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B608" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B609" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B611" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B612" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B613" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B615" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B617" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B618" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B619" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B620" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B621" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B624" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B627" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B628" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B629" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B636" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B637" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B641" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B650" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="B666" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B667" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B669" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B670" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B671" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B675" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B676" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B677" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B685" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Code/Prep codes/test_dir/result.xlsx
+++ b/Code/Prep codes/test_dir/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A701"/>
+  <dimension ref="A1:A569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,4680 +648,3756 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20220616_dengue_all</t>
+          <t>20220614_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20220617_dengue_all</t>
+          <t>20220615_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20220619_dengue_all</t>
+          <t>20220616_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20220620_dengue_all</t>
+          <t>20220617_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20220621_dengue_all</t>
+          <t>20220619_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20220622_dengue_all</t>
+          <t>20220620_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20220623_dengue_all</t>
+          <t>20220621_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20220624_dengue_all</t>
+          <t>20220622_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20220625_dengue_all</t>
+          <t>20220623_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20220627_dengue_all</t>
+          <t>20220624_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20220628_dengue_all</t>
+          <t>20220625_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20220629_dengue_all</t>
+          <t>20220626_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20220630_dengue_all</t>
+          <t>20220627_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20220701_dengue_all</t>
+          <t>20220629_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20220702_dengue_all</t>
+          <t>20220701_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20220703_dengue_all</t>
+          <t>20220702_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20220704_dengue_all</t>
+          <t>20220703_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20220706_dengue_all</t>
+          <t>20220704_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20220707_dengue_all</t>
+          <t>20220705_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20220709_dengue_all</t>
+          <t>20220706_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20220710_dengue_all</t>
+          <t>20220707_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20220711_dengue_all</t>
+          <t>20220708_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20220712_dengue_all</t>
+          <t>20220709_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20220713_dengue_all</t>
+          <t>20220710_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20220714_dengue_all</t>
+          <t>20220711_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20220715_dengue_all</t>
+          <t>20220712_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20220716_dengue_all</t>
+          <t>20220713_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20220717_dengue_all</t>
+          <t>20220714_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20220718_dengue_all</t>
+          <t>20220715_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20220719_dengue_all</t>
+          <t>20220716_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20220720_dengue_all</t>
+          <t>20220717_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20220721_dengue_all</t>
+          <t>20220718_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20220722_dengue_all</t>
+          <t>20220719_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20220723_dengue_all</t>
+          <t>20220720_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20220724_dengue_all</t>
+          <t>20220721_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20220726_dengue_all</t>
+          <t>20220722_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20220728_dengue_all</t>
+          <t>20220723_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20220729_dengue_all</t>
+          <t>20220724_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20220730_dengue_all</t>
+          <t>20220726_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20220731_dengue_all</t>
+          <t>20220728_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20220801_dengue_all</t>
+          <t>20220729_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20220802_dengue_all</t>
+          <t>20220730_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20220803_dengue_all</t>
+          <t>20220731_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20220804_dengue_all</t>
+          <t>20220801_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20220805_dengue_all</t>
+          <t>20220802_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20220806_dengue_all</t>
+          <t>20220803_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20220807_dengue_all</t>
+          <t>20220804_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20220810_dengue_all</t>
+          <t>20220805_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20220811_dengue_all</t>
+          <t>20220806_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20220812_dengue_all</t>
+          <t>20220807_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20220813_dengue_all</t>
+          <t>20220808_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20220814_dengue_all</t>
+          <t>20220810_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20220815_dengue_all</t>
+          <t>20220811_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20220816_dengue_all</t>
+          <t>20220812_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20220817_dengue_all</t>
+          <t>20220813_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20220818_dengue_all</t>
+          <t>20220814_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20220819_dengue_all</t>
+          <t>20220815_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20220820_dengue_all</t>
+          <t>20220817_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20220821_dengue_all</t>
+          <t>20220818_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20220822_dengue_all</t>
+          <t>20220819_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20220823_dengue_all</t>
+          <t>20220820_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20220825_dengue_all</t>
+          <t>20220821_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20220826_dengue_all</t>
+          <t>20220822_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20220827_dengue_all</t>
+          <t>20220823_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20220828_dengue_all</t>
+          <t>20220824_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20220829_dengue_all</t>
+          <t>20220825_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20220830_dengue_all</t>
+          <t>20220826_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20220831_dengue_all</t>
+          <t>20220827_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20220901_dengue_all</t>
+          <t>20220828_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20220902_dengue_all</t>
+          <t>20220829_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20220904_dengue_all</t>
+          <t>20220830_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20220905_dengue_all</t>
+          <t>20220901_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20220906_dengue_all</t>
+          <t>20220902_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20220908_dengue_all</t>
+          <t>20220903_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20220909_dengue_all</t>
+          <t>20220904_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20220910_dengue_all</t>
+          <t>20220905_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20220911_dengue_all</t>
+          <t>20220906_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20220912_dengue_all</t>
+          <t>20220907_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20220913_dengue_all</t>
+          <t>20220908_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20220914_dengue_all</t>
+          <t>20220910_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20220916_dengue_all</t>
+          <t>20220911_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20220917_dengue_all</t>
+          <t>20220912_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20220919_dengue_all</t>
+          <t>20220913_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20220920_dengue_all</t>
+          <t>20220914_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20220921_dengue_all</t>
+          <t>20220915_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20220923_dengue_all</t>
+          <t>20220916_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20220924_dengue_all</t>
+          <t>20220917_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20220926_dengue_all</t>
+          <t>20220918_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20220927_dengue_all</t>
+          <t>20220919_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20220928_dengue_all</t>
+          <t>20220920_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20220929_dengue_all</t>
+          <t>20220921_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20220930_dengue_all</t>
+          <t>20220922_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20221001_dengue_all</t>
+          <t>20220923_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20221002_dengue_all</t>
+          <t>20220924_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20221003_dengue_all</t>
+          <t>20220925_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20221004_dengue_all</t>
+          <t>20220926_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20221005_dengue_all</t>
+          <t>20220927_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20221006_dengue_all</t>
+          <t>20220928_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20221007_dengue_all</t>
+          <t>20220929_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20221011_dengue_all</t>
+          <t>20221001_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20221012_dengue_all</t>
+          <t>20221002_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20221013_dengue_all</t>
+          <t>20221003_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20221015_dengue_all</t>
+          <t>20221004_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20221016_dengue_all</t>
+          <t>20221005_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20221017_dengue_all</t>
+          <t>20221006_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20221018_dengue_all</t>
+          <t>20221007_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20221019_dengue_all</t>
+          <t>20221008_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20221020_dengue_all</t>
+          <t>20221011_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20221021_dengue_all</t>
+          <t>20221012_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20221023_dengue_all</t>
+          <t>20221013_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20221025_dengue_all</t>
+          <t>20221014_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20221027_dengue_all</t>
+          <t>20221015_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20221028_dengue_all</t>
+          <t>20221016_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20221029_dengue_all</t>
+          <t>20221017_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20221031_dengue_all</t>
+          <t>20221018_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20221030_dengue_all</t>
+          <t>20221019_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20221102_dengue_all</t>
+          <t>20221020_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20221103_dengue_all</t>
+          <t>20221021_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20221104_dengue_all</t>
+          <t>20221022_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20221105_dengue_all</t>
+          <t>20221023_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20221106_dengue_all</t>
+          <t>20221024_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20221107_dengue_all</t>
+          <t>20221025_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20221108_dengue_all</t>
+          <t>20221026_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20221109_dengue_all</t>
+          <t>20221027_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20221110_dengue_all</t>
+          <t>20221028_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20221111_dengue_all</t>
+          <t>20221031_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20221112_dengue_all</t>
+          <t>20221030_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20221113_dengue_all</t>
+          <t>20221101_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20221114_dengue_all</t>
+          <t>20221102_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20221115_dengue_all</t>
+          <t>20221103_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20221116_dengue_all</t>
+          <t>20221104_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20221117_dengue_all</t>
+          <t>20221105_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20221118_dengue_all</t>
+          <t>20221107_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20221119_dengue_all</t>
+          <t>20221108_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20221120_dengue_all</t>
+          <t>20221109_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20221121_dengue_all</t>
+          <t>20221110_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20221122_dengue_all</t>
+          <t>20221111_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20221123_dengue_all</t>
+          <t>20221112_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20221124_dengue_all</t>
+          <t>20221113_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20221125_dengue_all</t>
+          <t>20221114_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20221126_dengue_all</t>
+          <t>20221115_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20221127_dengue_all</t>
+          <t>20221116_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20221201_dengue_all</t>
+          <t>20221117_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20221202_dengue_all</t>
+          <t>20221118_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20221203_dengue_all</t>
+          <t>20221119_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20221204_dengue_all</t>
+          <t>20221120_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20221205_dengue_all</t>
+          <t>20221121_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20221206_dengue_all</t>
+          <t>20221122_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20221207_dengue_all</t>
+          <t>20221123_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20221209_dengue_all</t>
+          <t>20221124_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20221210_dengue_all</t>
+          <t>20221125_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20221211_dengue_all</t>
+          <t>20221126_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20221212_dengue_all</t>
+          <t>20221127_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20221213_dengue_all</t>
+          <t>20221201_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20221214_dengue_all</t>
+          <t>20221202_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20221215_dengue_all</t>
+          <t>20221203_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20221216_dengue_all</t>
+          <t>20221204_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20221217_dengue_all</t>
+          <t>20221205_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20221218_dengue_all</t>
+          <t>20221206_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20221219_dengue_all</t>
+          <t>20221207_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20221220_dengue_all</t>
+          <t>20221208_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20221221_dengue_all</t>
+          <t>20221209_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20221222_dengue_all</t>
+          <t>20221210_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20221223_dengue_all</t>
+          <t>20221211_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20221224_dengue_all</t>
+          <t>20221212_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20221225_dengue_all</t>
+          <t>20221213_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20221226_dengue_all</t>
+          <t>20221214_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20221227_dengue_all</t>
+          <t>20221215_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20221228_dengue_all</t>
+          <t>20221216_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20221229_dengue_all</t>
+          <t>20221217_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20221230_dengue_all</t>
+          <t>20221218_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20230101_dengue_all</t>
+          <t>20221219_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20230102_dengue_all</t>
+          <t>20221220_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20230103_dengue_all</t>
+          <t>20221221_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20230104_dengue_all</t>
+          <t>20221222_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20230105_dengue_all</t>
+          <t>20221223_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20230106_dengue_all</t>
+          <t>20221224_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20230107_dengue_all</t>
+          <t>20221225_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20230108_dengue_all</t>
+          <t>20221226_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20230109_dengue_all</t>
+          <t>20221227_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20230110_dengue_all</t>
+          <t>20221228_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20230111_dengue_all</t>
+          <t>20221229_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20230112_dengue_all</t>
+          <t>20221230_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20230113_dengue_all</t>
+          <t>20230101_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20230114_dengue_all</t>
+          <t>20230102_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20230115_dengue_all</t>
+          <t>20230103_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20230116_dengue_all</t>
+          <t>20230104_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20230117_dengue_all</t>
+          <t>20230105_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20230118_dengue_all</t>
+          <t>20230106_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20230119_dengue_all</t>
+          <t>20230107_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20230120_dengue_all</t>
+          <t>20230108_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20230121_dengue_all</t>
+          <t>20230109_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20230122_dengue_all</t>
+          <t>20230110_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20230123_dengue_all</t>
+          <t>20230111_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20230124_dengue_all</t>
+          <t>20230112_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20230125_dengue_all</t>
+          <t>20230113_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20230126_dengue_all</t>
+          <t>20230114_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20230127_dengue_all</t>
+          <t>20230115_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20230128_dengue_all</t>
+          <t>20230116_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20230129_dengue_all</t>
+          <t>20230117_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20230130_dengue_all</t>
+          <t>20230118_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20230131_dengue_all</t>
+          <t>20230119_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20230201_dengue_all</t>
+          <t>20230120_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20230202_dengue_all</t>
+          <t>20230121_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20230203_dengue_all</t>
+          <t>20230122_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20230205_dengue_all</t>
+          <t>20230123_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20230209_dengue_all</t>
+          <t>20230124_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20230210_dengue_all</t>
+          <t>20230125_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20230211_dengue_all</t>
+          <t>20230126_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20230212_dengue_all</t>
+          <t>20230127_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20230213_dengue_all</t>
+          <t>20230128_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20230214_dengue_all</t>
+          <t>20230129_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20230215_dengue_all</t>
+          <t>20230130_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20230217_dengue_all</t>
+          <t>20230131_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20230218_dengue_all</t>
+          <t>20230201_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20230219_dengue_all</t>
+          <t>20230202_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20230221_dengue_all</t>
+          <t>20230203_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20230222_dengue_all</t>
+          <t>20230204_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20230223_dengue_all</t>
+          <t>20230206_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20230224_dengue_all</t>
+          <t>20230207_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20230225_dengue_all</t>
+          <t>20230208_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20230226_dengue_all</t>
+          <t>20230209_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20230227_dengue_all</t>
+          <t>20230210_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20230228_dengue_all</t>
+          <t>20230211_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20230301_dengue_all</t>
+          <t>20230212_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20230302_dengue_all</t>
+          <t>20230213_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20230303_dengue_all</t>
+          <t>20230214_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20230304_dengue_all</t>
+          <t>20230215_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20230305_dengue_all</t>
+          <t>20230217_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20230306_dengue_all</t>
+          <t>20230218_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20230307_dengue_all</t>
+          <t>20230219_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20230308_dengue_all</t>
+          <t>20230220_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20230309_dengue_all</t>
+          <t>20230221_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20230310_dengue_all</t>
+          <t>20230222_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20230311_dengue_all</t>
+          <t>20230223_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20230312_dengue_all</t>
+          <t>20230224_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20230313_dengue_all</t>
+          <t>20230225_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20230314_dengue_all</t>
+          <t>20230226_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20230315_dengue_all</t>
+          <t>20230227_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20230316_dengue_all</t>
+          <t>20230228_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20230317_dengue_all</t>
+          <t>20230301_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20230318_dengue_all</t>
+          <t>20230302_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20230319_dengue_all</t>
+          <t>20230303_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20230320_dengue_all</t>
+          <t>20230304_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20230321_dengue_all</t>
+          <t>20230305_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20230322_dengue_all</t>
+          <t>20230306_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20230323_dengue_all</t>
+          <t>20230307_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20230324_dengue_all</t>
+          <t>20230308_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20230325_dengue_all</t>
+          <t>20230309_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20230326_dengue_all</t>
+          <t>20230310_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20230327_dengue_all</t>
+          <t>20230311_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20230328_dengue_all</t>
+          <t>20230312_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20230329_dengue_all</t>
+          <t>20230313_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20230330_dengue_all</t>
+          <t>20230314_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20230331_dengue_all</t>
+          <t>20230315_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20230401_dengue_all</t>
+          <t>20230316_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20230402_dengue_all</t>
+          <t>20230317_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20230403_dengue_all</t>
+          <t>20230318_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20230404_dengue_all</t>
+          <t>20230319_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20230405_dengue_all</t>
+          <t>20230320_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20230406_dengue_all</t>
+          <t>20230321_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20230407_dengue_all</t>
+          <t>20230322_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20230408_dengue_all</t>
+          <t>20230323_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20230409_dengue_all</t>
+          <t>20230324_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20230410_dengue_all</t>
+          <t>20230325_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20230411_dengue_all</t>
+          <t>20230326_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>20230412_dengue_all</t>
+          <t>20230327_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>20230413_dengue_all</t>
+          <t>20230328_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>20230414_dengue_all</t>
+          <t>20230329_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>20230415_dengue_all</t>
+          <t>20230330_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>20230416_dengue_all</t>
+          <t>20230331_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20230417_dengue_all</t>
+          <t>20230401_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>20230418_dengue_all</t>
+          <t>20230402_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>20230419_dengue_all</t>
+          <t>20230403_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>20230420_dengue_all</t>
+          <t>20230404_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>20230421_dengue_all</t>
+          <t>20230405_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>20230422_dengue_all</t>
+          <t>20230406_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>20230423_dengue_all</t>
+          <t>20230407_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>20230424_dengue_all</t>
+          <t>20230408_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20230425_dengue_all</t>
+          <t>20230409_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20230426_dengue_all</t>
+          <t>20230410_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20230427_dengue_all</t>
+          <t>20230411_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20230428_dengue_all</t>
+          <t>20230412_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20230429_dengue_all</t>
+          <t>20230413_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20230430_dengue_all</t>
+          <t>20230414_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20230501_dengue_all</t>
+          <t>20230415_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20230502_dengue_all</t>
+          <t>20230416_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20230503_dengue_all</t>
+          <t>20230417_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20230504_dengue_all</t>
+          <t>20230418_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>20230505_dengue_all</t>
+          <t>20230419_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>20230506_dengue_all</t>
+          <t>20230420_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>20230507_dengue_all</t>
+          <t>20230421_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20230508_dengue_all</t>
+          <t>20230422_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>20230509_dengue_all</t>
+          <t>20230423_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>20230510_dengue_all</t>
+          <t>20230424_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>20230511_dengue_all</t>
+          <t>20230425_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>20230512_dengue_all</t>
+          <t>20230426_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>20230514_dengue_all</t>
+          <t>20230427_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>20230515_dengue_all</t>
+          <t>20230428_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20230516_dengue_all</t>
+          <t>20230429_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>20230517_dengue_all</t>
+          <t>20230430_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>20230518_dengue_all</t>
+          <t>20230501_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>20230519_dengue_all</t>
+          <t>20230502_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>20230520_dengue_all</t>
+          <t>20230503_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20230521_dengue_all</t>
+          <t>20230504_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>20230522_dengue_all</t>
+          <t>20230505_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>20230523_dengue_all</t>
+          <t>20230506_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>20230524_dengue_all</t>
+          <t>20230507_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>20230525_dengue_all</t>
+          <t>20230508_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>20230526_dengue_all</t>
+          <t>20230509_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20230527_dengue_all</t>
+          <t>20230510_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>20230528_dengue_all</t>
+          <t>20230511_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>20230529_dengue_all</t>
+          <t>20230512_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>20230530_dengue_all</t>
+          <t>20230514_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>20230531_dengue_all</t>
+          <t>20230515_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>20230601_dengue_all</t>
+          <t>20230516_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>20230602_dengue_all</t>
+          <t>20230517_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>20230603_dengue_all</t>
+          <t>20230518_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>20230604_dengue_all</t>
+          <t>20230519_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>20230605_dengue_all</t>
+          <t>20230520_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>20230606_dengue_all</t>
+          <t>20230521_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>20230607_dengue_all</t>
+          <t>20230522_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>20230608_dengue_all</t>
+          <t>20230523_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>20230609_dengue_all</t>
+          <t>20230524_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>20230610_dengue_all</t>
+          <t>20230525_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>20230611_dengue_all</t>
+          <t>20230526_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>20230612_dengue_all</t>
+          <t>20230527_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20230613_dengue_all</t>
+          <t>20230528_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20230614_dengue_all</t>
+          <t>20230529_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>20230615_dengue_all</t>
+          <t>20230530_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20230616_dengue_all</t>
+          <t>20230531_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>20230617_dengue_all</t>
+          <t>20230601_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>20230618_dengue_all</t>
+          <t>20230602_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>20230619_dengue_all</t>
+          <t>20230603_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>20230620_dengue_all</t>
+          <t>20230604_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>20230621_dengue_all</t>
+          <t>20230605_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>20230622_dengue_all</t>
+          <t>20230606_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>20230623_dengue_all</t>
+          <t>20230607_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>20230624_dengue_all</t>
+          <t>20230608_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>20230625_dengue_all</t>
+          <t>20230609_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>20230626_dengue_all</t>
+          <t>20230610_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>20230627_dengue_all</t>
+          <t>20230611_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>20230628_dengue_all</t>
+          <t>20230612_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>20230629_dengue_all</t>
+          <t>20230613_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>20230630_dengue_all</t>
+          <t>20230614_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>20230701_dengue_all</t>
+          <t>20230615_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>20230702_dengue_all</t>
+          <t>20230616_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>20230703_dengue_all</t>
+          <t>20230617_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>20230704_dengue_all</t>
+          <t>20230618_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>20230705_dengue_all</t>
+          <t>20230619_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>20230706_dengue_all</t>
+          <t>20230620_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>20230707_dengue_all</t>
+          <t>20230621_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>20230708_dengue_all</t>
+          <t>20230622_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>20230709_dengue_all</t>
+          <t>20230623_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>20230710_dengue_all</t>
+          <t>20230624_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>20230711_dengue_all</t>
+          <t>20230625_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>20230712_dengue_all</t>
+          <t>20230626_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>20230713_dengue_all</t>
+          <t>20230627_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>20230714_dengue_all</t>
+          <t>20230628_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>20230715_dengue_all</t>
+          <t>20230629_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>20230716_dengue_all</t>
+          <t>20230630_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>20230717_dengue_all</t>
+          <t>20230701_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>20230718_dengue_all</t>
+          <t>20230702_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>20230719_dengue_all</t>
+          <t>20230703_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>20230720_dengue_all</t>
+          <t>20230704_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>20230721_dengue_all</t>
+          <t>20230705_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>20230722_dengue_all</t>
+          <t>20230706_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>20230723_dengue_all</t>
+          <t>20230707_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>20230725_dengue_all</t>
+          <t>20230708_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>20230726_dengue_all</t>
+          <t>20230709_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>20230727_dengue_all</t>
+          <t>20230710_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>20230728_dengue_all</t>
+          <t>20230711_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>20230729_dengue_all</t>
+          <t>20230712_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>20230730_dengue_all</t>
+          <t>20230713_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>20230731_dengue_all</t>
+          <t>20230714_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>20230801_dengue_all</t>
+          <t>20230715_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>20230802_dengue_all</t>
+          <t>20230716_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>20230803_dengue_all</t>
+          <t>20230717_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>20230804_dengue_all</t>
+          <t>20230718_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>20230805_dengue_all</t>
+          <t>20230719_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>20230806_dengue_all</t>
+          <t>20230720_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>20230807_dengue_all</t>
+          <t>20230721_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>20230808_dengue_all</t>
+          <t>20230722_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>20230809_dengue_all</t>
+          <t>20230723_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>20230810_dengue_all</t>
+          <t>20230725_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>20230811_dengue_all</t>
+          <t>20230726_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>20230812_dengue_all</t>
+          <t>20230727_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>20230813_dengue_all</t>
+          <t>20230728_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>20230814_dengue_all</t>
+          <t>20230729_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>20230815_dengue_all</t>
+          <t>Dengue_20190901</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>20230816_dengue_all</t>
+          <t>Dengue_20190902</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>20230817_dengue_all</t>
+          <t>Dengue_20190903</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>20230818_dengue_all</t>
+          <t>Dengue_20190906</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>20230819_dengue_all</t>
+          <t>Dengue_20190907</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>20230820_dengue_all</t>
+          <t>Dengue_20190908</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>20230821_dengue_all</t>
+          <t>Dengue_20190910</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>20230822_dengue_all</t>
+          <t>Dengue_20190911</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>20230823_dengue_all</t>
+          <t>Dengue_20190912</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>20230824_dengue_all</t>
+          <t>Dengue_20190913</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>20230825_dengue_all</t>
+          <t>Dengue_20190914</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>20230826_dengue_all</t>
+          <t>Dengue_20190915</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>20230827_dengue_all</t>
+          <t>Dengue_20190916</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>20230828_dengue_all</t>
+          <t>Dengue_20190917</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>20230829_dengue_all</t>
+          <t>Dengue_20190918</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>20230830_dengue_all</t>
+          <t>Dengue_20190919</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>20230831_dengue_all</t>
+          <t>Dengue_20190920</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>20230901_dengue_all</t>
+          <t>Dengue_20190921</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>20230902_dengue_all</t>
+          <t>Dengue_20190922</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>20230903_dengue_all</t>
+          <t>Dengue_20190923</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>20230904_dengue_all</t>
+          <t>Dengue_20190924</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>20230905_dengue_all</t>
+          <t>Dengue_20190927</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>20230906_dengue_all</t>
+          <t>Dengue_20190928</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>20230907_dengue_all</t>
+          <t>Dengue_20190929</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>20230908_dengue_all</t>
+          <t>Dengue_20190930</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>20230909_dengue_all</t>
+          <t>Dengue_20191001</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>20230910_dengue_all</t>
+          <t>Dengue_20191002</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>20230911_dengue_all</t>
+          <t>Dengue_20191003</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>20230912_dengue_all</t>
+          <t>Dengue_20191004</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>20230913_dengue_all</t>
+          <t>Dengue_20191005</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>20230914_dengue_all</t>
+          <t>Dengue_20191006</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>20230915_dengue_all</t>
+          <t>Dengue_20191007</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>20230916_dengue_all</t>
+          <t>Dengue_20191008</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>20230917_dengue_all</t>
+          <t>Dengue_20191009</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>20230918_dengue_all</t>
+          <t>Dengue_20191010</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>20230919_dengue_all</t>
+          <t>Dengue_20191011</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>20230920_dengue_all</t>
+          <t>Dengue_20191012</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>20230921_dengue_all</t>
+          <t>Dengue_20191013</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>20230922_dengue_all</t>
+          <t>Dengue_20191014</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>20230923_dengue_all</t>
+          <t>Dengue_20191015</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>20230924_dengue_all</t>
+          <t>Dengue_20191016</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>20230925_dengue_all</t>
+          <t>Dengue_20191017</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>20230926_dengue_all</t>
+          <t>Dengue_20191018</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>20230927_dengue_all</t>
+          <t>Dengue_20191019</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>20230928_dengue_all</t>
+          <t>Dengue_20191020</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>20230929_dengue_all</t>
+          <t>Dengue_20191021</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>20230930_dengue_all</t>
+          <t>Dengue_20191022</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>20231001_dengue_all</t>
+          <t>Dengue_20191023</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>20231002_dengue_all</t>
+          <t>Dengue_20191024</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>20231003_dengue_all</t>
+          <t>Dengue_20191025</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>20231004_dengue_all</t>
+          <t>Dengue_20191026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>20231005_dengue_all</t>
+          <t>Dengue_20191027</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>20231006_dengue_all</t>
+          <t>Dengue_20191028</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>20231007_dengue_all</t>
+          <t>Dengue_20191029</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>20231008_dengue_all</t>
+          <t>Dengue_20191030</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>20231009_dengue_all</t>
+          <t>Dengue_20191031</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>20231010_dengue_all</t>
+          <t>Dengue_20191101</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>20231011_dengue_all</t>
+          <t>Dengue_20191102</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>20231012_dengue_all</t>
+          <t>Dengue_20191103</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>20231013_dengue_all</t>
+          <t>Dengue_20191104</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>20231014_dengue_all</t>
+          <t>Dengue_20191105</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>20231015_dengue_all</t>
+          <t>Dengue_20191106</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>20231016_dengue_all</t>
+          <t>Dengue_20191107</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>20231017_dengue_all</t>
+          <t>Dengue_20191108</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>20231018_dengue_all</t>
+          <t>Dengue_20191109</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>20231019_dengue_all</t>
+          <t>Dengue_20191110</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>20231020_dengue_all</t>
+          <t>Dengue_20191111</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>20231021_dengue_all</t>
+          <t>Dengue_20191112</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>20231022_dengue_all</t>
+          <t>Dengue_20191113</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>20231023_dengue_all</t>
+          <t>Dengue_20191114</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>20231024_dengue_all</t>
+          <t>Dengue_20191115</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>20231025_dengue_all</t>
+          <t>Dengue_20191116</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>20231026_dengue_all</t>
+          <t>Dengue_20191117</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>20231027_dengue_all</t>
+          <t>Dengue_20191118</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>20231028_dengue_all</t>
+          <t>Dengue_20191119</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>20231029_dengue_all</t>
+          <t>Dengue_20191120</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>20231030_dengue_all</t>
+          <t>Dengue_20191121</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>20231101_dengue_all</t>
+          <t>Dengue_20191122</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>20231102_dengue_all</t>
+          <t>Dengue_20191123</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>20231103_dengue_all</t>
+          <t>Dengue_20191124</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>20231104_dengue_all</t>
+          <t>Dengue_20191125</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>20231105_dengue_all</t>
+          <t>Dengue_20191126</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>20231106_dengue_all</t>
+          <t>Dengue_20191127</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>20231107_dengue_all</t>
+          <t>Dengue_20191128</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>20231108_dengue_all</t>
+          <t>Dengue_20191129</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>20231109_dengue_all</t>
+          <t>Dengue_20191130</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>20231110_dengue_all</t>
+          <t>Dengue_20191201</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>20231111_dengue_all</t>
+          <t>Dengue_20191202</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>20231112_dengue_all</t>
+          <t>Dengue_20191203</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>20231113_dengue_all</t>
+          <t>Dengue_20191204</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>20231114_dengue_all</t>
+          <t>Dengue_20191205</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>20231115_dengue_all</t>
+          <t>Dengue_20191206</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>20231116_dengue_all</t>
+          <t>Dengue_20191207</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>20231117_dengue_all</t>
+          <t>Dengue_20191208</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>20231118_dengue_all</t>
+          <t>Dengue_20191209</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>20231119_dengue_all</t>
+          <t>Dengue_20191210</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>20231120_dengue_all</t>
+          <t>Dengue_20191211</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>20231121_dengue_all</t>
+          <t>Dengue_20191212</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>20231122_dengue_all</t>
+          <t>Dengue_20191213</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>20231123_dengue_all</t>
+          <t>Dengue_20191214</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>20231124_dengue_all</t>
+          <t>Dengue_20191215</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>20231125_dengue_all</t>
+          <t>Dengue_20191216</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>20231126_dengue_all</t>
+          <t>Dengue_20191217</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>20231127_dengue_all</t>
+          <t>Dengue_20191218</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>20231128_dengue_all</t>
+          <t>Dengue_20191219</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>20231129_dengue_all</t>
+          <t>Dengue_20191220</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>20231130_dengue_all</t>
+          <t>Dengue_20191221</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>20231201_dengue_all</t>
+          <t>Dengue_20191222</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>20231202_dengue_all</t>
+          <t>Dengue_20191223</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>20231203_dengue_all</t>
+          <t>Dengue_20191224</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>20231204_dengue_all</t>
+          <t>Dengue_20191225</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>20231205_dengue_all</t>
+          <t>Dengue_20191226</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>20231206_dengue_all</t>
+          <t>Dengue_20191227</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>20231207_dengue_all</t>
+          <t>Dengue_20191228</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>20231208_dengue_all</t>
+          <t>Dengue_20191229</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>20231209_dengue_all</t>
+          <t>Dengue_20191230</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>20231210_dengue_all</t>
+          <t>Dengue_20191231</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>20231211_dengue_all</t>
+          <t>Dengue_20200101</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>20231212_dengue_all</t>
+          <t>Dengue_20200102</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>20231213_dengue_all</t>
+          <t>Dengue_20200103</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>20231214_dengue_all</t>
+          <t>Dengue_20200104</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>20231215_dengue_all</t>
+          <t>Dengue_20200105</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>20231216_dengue_all</t>
+          <t>Dengue_20200106</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>20231217_dengue_all</t>
+          <t>Dengue_20200107</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>20231218_dengue_all</t>
+          <t>Dengue_20200108</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>20231219_dengue_all</t>
+          <t>Dengue_20200109</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>20231220_dengue_all</t>
+          <t>Dengue_20200110</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>20231221_dengue_all</t>
+          <t>Dengue_20200111</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>20231222_dengue_all</t>
+          <t>Dengue_20200112</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>20231223_dengue_all</t>
+          <t>Dengue_20200113</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>20231224_dengue_all</t>
+          <t>Dengue_20200114</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>20231225_dengue_all</t>
+          <t>Dengue_20200115</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>20231226_dengue_all</t>
+          <t>Dengue_20200116</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Dengue_20190901</t>
+          <t>Dengue_20200117</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Dengue_20190902</t>
+          <t>Dengue_20200118</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Dengue_20190903</t>
+          <t>Dengue_20200119</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Dengue_20190906</t>
+          <t>Dengue_20200120</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Dengue_20190907</t>
+          <t>Dengue_20200121</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Dengue_20190908</t>
+          <t>Dengue_20200122</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Dengue_20190910</t>
+          <t>Dengue_20200123</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Dengue_20190911</t>
+          <t>Dengue_20200124</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Dengue_20190912</t>
+          <t>Dengue_20200125</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Dengue_20190913</t>
+          <t>Dengue_20200126</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Dengue_20190914</t>
+          <t>Dengue_20200127</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Dengue_20190915</t>
+          <t>Dengue_20200128</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Dengue_20190916</t>
+          <t>Dengue_20200129</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Dengue_20190917</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>Dengue_20190918</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>Dengue_20190919</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>Dengue_20190920</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>Dengue_20190921</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>Dengue_20190922</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>Dengue_20190923</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>Dengue_20190924</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>Dengue_20190927</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>Dengue_20190928</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>Dengue_20190929</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>Dengue_20190930</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>Dengue_20191001</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>Dengue_20191002</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>Dengue_20191003</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>Dengue_20191004</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>Dengue_20191005</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Dengue_20191006</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Dengue_20191007</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>Dengue_20191008</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>Dengue_20191009</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>Dengue_20191010</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>Dengue_20191011</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>Dengue_20191012</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>Dengue_20191013</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>Dengue_20191014</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>Dengue_20191015</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>Dengue_20191016</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>Dengue_20191017</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>Dengue_20191018</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>Dengue_20191019</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>Dengue_20191020</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>Dengue_20191021</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Dengue_20191022</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>Dengue_20191023</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Dengue_20191024</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>Dengue_20191025</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>Dengue_20191026</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>Dengue_20191027</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>Dengue_20191028</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>Dengue_20191029</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>Dengue_20191030</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>Dengue_20191031</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>Dengue_20191101</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>Dengue_20191102</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>Dengue_20191103</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>Dengue_20191104</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>Dengue_20191105</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>Dengue_20191106</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>Dengue_20191107</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>Dengue_20191108</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>Dengue_20191109</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>Dengue_20191110</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>Dengue_20191111</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>Dengue_20191112</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Dengue_20191113</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>Dengue_20191114</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>Dengue_20191115</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>Dengue_20191116</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>Dengue_20191117</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>Dengue_20191118</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>Dengue_20191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Dengue_20191120</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>Dengue_20191121</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>Dengue_20191122</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>Dengue_20191123</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>Dengue_20191124</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>Dengue_20191125</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>Dengue_20191126</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>Dengue_20191127</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>Dengue_20191128</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>Dengue_20191129</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>Dengue_20191130</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>Dengue_20191201</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>Dengue_20191203</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Dengue_20191204</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>Dengue_20191205</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>Dengue_20191206</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>Dengue_20191207</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>Dengue_20191208</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>Dengue_20191209</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>Dengue_20191210</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>Dengue_20191211</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>Dengue_20191212</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>Dengue_20191213</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>Dengue_20191214</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>Dengue_20191215</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>Dengue_20191216</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>Dengue_20191217</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>Dengue_20191218</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>Dengue_20191219</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>Dengue_20191220</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>Dengue_20191221</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>Dengue_20191222</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>Dengue_20191223</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>Dengue_20191224</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>Dengue_20191225</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>Dengue_20191226</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>Dengue_20191227</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>Dengue_20191228</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>Dengue_20191229</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>Dengue_20191230</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>Dengue_20191231</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Dengue_20200101</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>Dengue_20200102</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>Dengue_20200103</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>Dengue_20200104</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Dengue_20200105</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>Dengue_20200106</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>Dengue_20200107</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>Dengue_20200108</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>Dengue_20200109</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>Dengue_20200110</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>Dengue_20200111</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>Dengue_20200112</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>Dengue_20200113</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>Dengue_20200114</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>Dengue_20200115</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>Dengue_20200116</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>Dengue_20200117</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>Dengue_20200118</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>Dengue_20200119</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>Dengue_20200120</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>Dengue_20200121</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>Dengue_20200122</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>Dengue_20200123</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>Dengue_20200124</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>Dengue_20200125</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>Dengue_20200126</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>Dengue_20200127</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>Dengue_20200128</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>Dengue_20200129</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
           <t>Dengue_20200130</t>
         </is>
       </c>
     </row>
-    <row r="701"/>
+    <row r="569"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Prep codes/test_dir/result.xlsx
+++ b/Code/Prep codes/test_dir/result.xlsx
@@ -718,2758 +718,2758 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20220625_dengue_all</t>
+          <t>20220624_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20220626_dengue_all</t>
+          <t>20220625_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20220627_dengue_all</t>
+          <t>20220626_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20220629_dengue_all</t>
+          <t>20220627_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20220701_dengue_all</t>
+          <t>20220629_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20220702_dengue_all</t>
+          <t>20220701_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20220703_dengue_all</t>
+          <t>20220702_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20220704_dengue_all</t>
+          <t>20220703_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20220705_dengue_all</t>
+          <t>20220704_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20220706_dengue_all</t>
+          <t>20220705_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20220707_dengue_all</t>
+          <t>20220706_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20220708_dengue_all</t>
+          <t>20220707_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20220709_dengue_all</t>
+          <t>20220708_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20220710_dengue_all</t>
+          <t>20220709_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20220711_dengue_all</t>
+          <t>20220710_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20220712_dengue_all</t>
+          <t>20220711_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20220713_dengue_all</t>
+          <t>20220712_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20220714_dengue_all</t>
+          <t>20220713_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20220715_dengue_all</t>
+          <t>20220714_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20220716_dengue_all</t>
+          <t>20220715_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20220717_dengue_all</t>
+          <t>20220716_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20220718_dengue_all</t>
+          <t>20220717_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20220719_dengue_all</t>
+          <t>20220718_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20220720_dengue_all</t>
+          <t>20220719_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20220721_dengue_all</t>
+          <t>20220720_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20220722_dengue_all</t>
+          <t>20220721_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20220723_dengue_all</t>
+          <t>20220722_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20220724_dengue_all</t>
+          <t>20220723_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20220726_dengue_all</t>
+          <t>20220724_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20220728_dengue_all</t>
+          <t>20220726_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20220729_dengue_all</t>
+          <t>20220728_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20220730_dengue_all</t>
+          <t>20220729_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20220731_dengue_all</t>
+          <t>20220730_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20220801_dengue_all</t>
+          <t>20220731_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20220802_dengue_all</t>
+          <t>20220801_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20220803_dengue_all</t>
+          <t>20220802_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20220804_dengue_all</t>
+          <t>20220803_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20220805_dengue_all</t>
+          <t>20220804_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20220806_dengue_all</t>
+          <t>20220805_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20220807_dengue_all</t>
+          <t>20220806_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20220808_dengue_all</t>
+          <t>20220807_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20220810_dengue_all</t>
+          <t>20220808_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20220811_dengue_all</t>
+          <t>20220810_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20220812_dengue_all</t>
+          <t>20220811_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20220813_dengue_all</t>
+          <t>20220812_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20220814_dengue_all</t>
+          <t>20220813_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20220815_dengue_all</t>
+          <t>20220814_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20220817_dengue_all</t>
+          <t>20220815_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20220818_dengue_all</t>
+          <t>20220817_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20220819_dengue_all</t>
+          <t>20220818_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20220820_dengue_all</t>
+          <t>20220819_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20220821_dengue_all</t>
+          <t>20220820_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20220822_dengue_all</t>
+          <t>20220821_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20220823_dengue_all</t>
+          <t>20220822_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20220824_dengue_all</t>
+          <t>20220823_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20220825_dengue_all</t>
+          <t>20220824_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20220826_dengue_all</t>
+          <t>20220825_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20220827_dengue_all</t>
+          <t>20220826_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20220828_dengue_all</t>
+          <t>20220827_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20220829_dengue_all</t>
+          <t>20220828_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20220830_dengue_all</t>
+          <t>20220829_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20220901_dengue_all</t>
+          <t>20220830_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20220902_dengue_all</t>
+          <t>20220901_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20220903_dengue_all</t>
+          <t>20220902_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20220904_dengue_all</t>
+          <t>20220903_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20220905_dengue_all</t>
+          <t>20220904_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20220906_dengue_all</t>
+          <t>20220905_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20220907_dengue_all</t>
+          <t>20220906_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20220908_dengue_all</t>
+          <t>20220907_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20220910_dengue_all</t>
+          <t>20220908_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20220911_dengue_all</t>
+          <t>20220910_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20220912_dengue_all</t>
+          <t>20220911_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20220913_dengue_all</t>
+          <t>20220912_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20220914_dengue_all</t>
+          <t>20220913_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20220915_dengue_all</t>
+          <t>20220914_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20220916_dengue_all</t>
+          <t>20220915_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20220917_dengue_all</t>
+          <t>20220916_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20220918_dengue_all</t>
+          <t>20220917_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20220919_dengue_all</t>
+          <t>20220918_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20220920_dengue_all</t>
+          <t>20220919_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20220921_dengue_all</t>
+          <t>20220920_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20220922_dengue_all</t>
+          <t>20220921_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20220923_dengue_all</t>
+          <t>20220922_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20220924_dengue_all</t>
+          <t>20220923_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20220925_dengue_all</t>
+          <t>20220924_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20220926_dengue_all</t>
+          <t>20220925_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20220927_dengue_all</t>
+          <t>20220926_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20220928_dengue_all</t>
+          <t>20220927_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20220929_dengue_all</t>
+          <t>20220928_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20221001_dengue_all</t>
+          <t>20220929_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20221002_dengue_all</t>
+          <t>20221001_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20221003_dengue_all</t>
+          <t>20221002_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20221004_dengue_all</t>
+          <t>20221003_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20221005_dengue_all</t>
+          <t>20221004_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20221006_dengue_all</t>
+          <t>20221005_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20221007_dengue_all</t>
+          <t>20221006_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20221008_dengue_all</t>
+          <t>20221007_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20221011_dengue_all</t>
+          <t>20221008_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20221012_dengue_all</t>
+          <t>20221011_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20221013_dengue_all</t>
+          <t>20221012_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20221014_dengue_all</t>
+          <t>20221013_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20221015_dengue_all</t>
+          <t>20221014_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20221016_dengue_all</t>
+          <t>20221015_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20221017_dengue_all</t>
+          <t>20221016_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20221018_dengue_all</t>
+          <t>20221017_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20221019_dengue_all</t>
+          <t>20221018_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20221020_dengue_all</t>
+          <t>20221019_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20221021_dengue_all</t>
+          <t>20221020_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20221022_dengue_all</t>
+          <t>20221021_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20221023_dengue_all</t>
+          <t>20221022_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20221024_dengue_all</t>
+          <t>20221023_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20221025_dengue_all</t>
+          <t>20221024_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20221026_dengue_all</t>
+          <t>20221025_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20221027_dengue_all</t>
+          <t>20221026_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20221028_dengue_all</t>
+          <t>20221027_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20221031_dengue_all</t>
+          <t>20221028_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20221030_dengue_all</t>
+          <t>20221031_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20221101_dengue_all</t>
+          <t>20221030_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20221102_dengue_all</t>
+          <t>20221101_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20221103_dengue_all</t>
+          <t>20221102_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20221104_dengue_all</t>
+          <t>20221103_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20221105_dengue_all</t>
+          <t>20221104_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20221107_dengue_all</t>
+          <t>20221105_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20221108_dengue_all</t>
+          <t>20221107_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20221109_dengue_all</t>
+          <t>20221108_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20221110_dengue_all</t>
+          <t>20221109_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20221111_dengue_all</t>
+          <t>20221110_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20221112_dengue_all</t>
+          <t>20221111_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20221113_dengue_all</t>
+          <t>20221112_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20221114_dengue_all</t>
+          <t>20221113_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20221115_dengue_all</t>
+          <t>20221114_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20221116_dengue_all</t>
+          <t>20221115_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20221117_dengue_all</t>
+          <t>20221116_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20221118_dengue_all</t>
+          <t>20221117_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20221119_dengue_all</t>
+          <t>20221118_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20221120_dengue_all</t>
+          <t>20221119_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20221121_dengue_all</t>
+          <t>20221120_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20221122_dengue_all</t>
+          <t>20221121_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20221123_dengue_all</t>
+          <t>20221122_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20221124_dengue_all</t>
+          <t>20221123_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20221125_dengue_all</t>
+          <t>20221124_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20221126_dengue_all</t>
+          <t>20221125_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20221127_dengue_all</t>
+          <t>20221126_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20221201_dengue_all</t>
+          <t>20221127_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20221202_dengue_all</t>
+          <t>20221201_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20221203_dengue_all</t>
+          <t>20221202_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20221204_dengue_all</t>
+          <t>20221203_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20221205_dengue_all</t>
+          <t>20221204_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20221206_dengue_all</t>
+          <t>20221205_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20221207_dengue_all</t>
+          <t>20221206_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20221208_dengue_all</t>
+          <t>20221207_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20221209_dengue_all</t>
+          <t>20221208_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20221210_dengue_all</t>
+          <t>20221209_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20221211_dengue_all</t>
+          <t>20221210_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20221212_dengue_all</t>
+          <t>20221211_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20221213_dengue_all</t>
+          <t>20221212_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20221214_dengue_all</t>
+          <t>20221213_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20221215_dengue_all</t>
+          <t>20221214_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20221216_dengue_all</t>
+          <t>20221215_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20221217_dengue_all</t>
+          <t>20221216_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20221218_dengue_all</t>
+          <t>20221217_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20221219_dengue_all</t>
+          <t>20221218_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20221220_dengue_all</t>
+          <t>20221219_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20221221_dengue_all</t>
+          <t>20221220_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20221222_dengue_all</t>
+          <t>20221221_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20221223_dengue_all</t>
+          <t>20221222_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20221224_dengue_all</t>
+          <t>20221223_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20221225_dengue_all</t>
+          <t>20221224_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20221226_dengue_all</t>
+          <t>20221225_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20221227_dengue_all</t>
+          <t>20221226_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20221228_dengue_all</t>
+          <t>20221227_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20221229_dengue_all</t>
+          <t>20221228_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20221230_dengue_all</t>
+          <t>20221229_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20230101_dengue_all</t>
+          <t>20221230_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20230102_dengue_all</t>
+          <t>20230101_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20230103_dengue_all</t>
+          <t>20230102_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20230104_dengue_all</t>
+          <t>20230103_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20230105_dengue_all</t>
+          <t>20230104_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20230106_dengue_all</t>
+          <t>20230105_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20230107_dengue_all</t>
+          <t>20230106_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20230108_dengue_all</t>
+          <t>20230107_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20230109_dengue_all</t>
+          <t>20230108_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20230110_dengue_all</t>
+          <t>20230109_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20230111_dengue_all</t>
+          <t>20230110_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20230112_dengue_all</t>
+          <t>20230111_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20230113_dengue_all</t>
+          <t>20230112_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20230114_dengue_all</t>
+          <t>20230113_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20230115_dengue_all</t>
+          <t>20230114_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20230116_dengue_all</t>
+          <t>20230115_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20230117_dengue_all</t>
+          <t>20230116_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20230118_dengue_all</t>
+          <t>20230117_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20230119_dengue_all</t>
+          <t>20230118_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20230120_dengue_all</t>
+          <t>20230119_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20230121_dengue_all</t>
+          <t>20230120_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20230122_dengue_all</t>
+          <t>20230121_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20230123_dengue_all</t>
+          <t>20230122_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20230124_dengue_all</t>
+          <t>20230123_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20230125_dengue_all</t>
+          <t>20230124_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20230126_dengue_all</t>
+          <t>20230125_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20230127_dengue_all</t>
+          <t>20230126_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20230128_dengue_all</t>
+          <t>20230127_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20230129_dengue_all</t>
+          <t>20230128_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20230130_dengue_all</t>
+          <t>20230129_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20230131_dengue_all</t>
+          <t>20230130_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20230201_dengue_all</t>
+          <t>20230131_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20230202_dengue_all</t>
+          <t>20230201_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20230203_dengue_all</t>
+          <t>20230202_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20230204_dengue_all</t>
+          <t>20230203_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20230206_dengue_all</t>
+          <t>20230204_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20230207_dengue_all</t>
+          <t>20230206_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20230208_dengue_all</t>
+          <t>20230207_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20230209_dengue_all</t>
+          <t>20230208_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20230210_dengue_all</t>
+          <t>20230209_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20230211_dengue_all</t>
+          <t>20230210_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20230212_dengue_all</t>
+          <t>20230211_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20230213_dengue_all</t>
+          <t>20230212_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20230214_dengue_all</t>
+          <t>20230213_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20230215_dengue_all</t>
+          <t>20230214_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20230217_dengue_all</t>
+          <t>20230215_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20230218_dengue_all</t>
+          <t>20230217_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20230219_dengue_all</t>
+          <t>20230218_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20230220_dengue_all</t>
+          <t>20230219_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20230221_dengue_all</t>
+          <t>20230220_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20230222_dengue_all</t>
+          <t>20230221_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20230223_dengue_all</t>
+          <t>20230222_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20230224_dengue_all</t>
+          <t>20230223_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20230225_dengue_all</t>
+          <t>20230224_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20230226_dengue_all</t>
+          <t>20230225_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20230227_dengue_all</t>
+          <t>20230226_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20230228_dengue_all</t>
+          <t>20230227_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20230301_dengue_all</t>
+          <t>20230228_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20230302_dengue_all</t>
+          <t>20230301_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20230303_dengue_all</t>
+          <t>20230302_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20230304_dengue_all</t>
+          <t>20230303_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20230305_dengue_all</t>
+          <t>20230304_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20230306_dengue_all</t>
+          <t>20230305_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20230307_dengue_all</t>
+          <t>20230306_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20230308_dengue_all</t>
+          <t>20230307_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20230309_dengue_all</t>
+          <t>20230308_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20230310_dengue_all</t>
+          <t>20230309_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20230311_dengue_all</t>
+          <t>20230310_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20230312_dengue_all</t>
+          <t>20230311_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20230313_dengue_all</t>
+          <t>20230312_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20230314_dengue_all</t>
+          <t>20230313_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20230315_dengue_all</t>
+          <t>20230314_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20230316_dengue_all</t>
+          <t>20230315_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20230317_dengue_all</t>
+          <t>20230316_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20230318_dengue_all</t>
+          <t>20230317_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20230319_dengue_all</t>
+          <t>20230318_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20230320_dengue_all</t>
+          <t>20230319_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20230321_dengue_all</t>
+          <t>20230320_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20230322_dengue_all</t>
+          <t>20230321_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20230323_dengue_all</t>
+          <t>20230322_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20230324_dengue_all</t>
+          <t>20230323_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20230325_dengue_all</t>
+          <t>20230324_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20230326_dengue_all</t>
+          <t>20230325_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>20230327_dengue_all</t>
+          <t>20230326_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>20230328_dengue_all</t>
+          <t>20230327_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>20230329_dengue_all</t>
+          <t>20230328_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>20230330_dengue_all</t>
+          <t>20230329_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>20230331_dengue_all</t>
+          <t>20230330_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20230401_dengue_all</t>
+          <t>20230331_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>20230402_dengue_all</t>
+          <t>20230401_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>20230403_dengue_all</t>
+          <t>20230402_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>20230404_dengue_all</t>
+          <t>20230403_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>20230405_dengue_all</t>
+          <t>20230404_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>20230406_dengue_all</t>
+          <t>20230405_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>20230407_dengue_all</t>
+          <t>20230406_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>20230408_dengue_all</t>
+          <t>20230407_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20230409_dengue_all</t>
+          <t>20230408_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20230410_dengue_all</t>
+          <t>20230409_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20230411_dengue_all</t>
+          <t>20230410_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20230412_dengue_all</t>
+          <t>20230411_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20230413_dengue_all</t>
+          <t>20230412_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20230414_dengue_all</t>
+          <t>20230413_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20230415_dengue_all</t>
+          <t>20230414_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20230416_dengue_all</t>
+          <t>20230415_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20230417_dengue_all</t>
+          <t>20230416_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20230418_dengue_all</t>
+          <t>20230417_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>20230419_dengue_all</t>
+          <t>20230418_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>20230420_dengue_all</t>
+          <t>20230419_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>20230421_dengue_all</t>
+          <t>20230420_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20230422_dengue_all</t>
+          <t>20230421_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>20230423_dengue_all</t>
+          <t>20230422_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>20230424_dengue_all</t>
+          <t>20230423_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>20230425_dengue_all</t>
+          <t>20230424_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>20230426_dengue_all</t>
+          <t>20230425_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>20230427_dengue_all</t>
+          <t>20230426_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>20230428_dengue_all</t>
+          <t>20230427_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20230429_dengue_all</t>
+          <t>20230428_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>20230430_dengue_all</t>
+          <t>20230429_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>20230501_dengue_all</t>
+          <t>20230430_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>20230502_dengue_all</t>
+          <t>20230501_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>20230503_dengue_all</t>
+          <t>20230502_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20230504_dengue_all</t>
+          <t>20230503_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>20230505_dengue_all</t>
+          <t>20230504_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>20230506_dengue_all</t>
+          <t>20230505_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>20230507_dengue_all</t>
+          <t>20230506_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>20230508_dengue_all</t>
+          <t>20230507_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>20230509_dengue_all</t>
+          <t>20230508_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20230510_dengue_all</t>
+          <t>20230509_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>20230511_dengue_all</t>
+          <t>20230510_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>20230512_dengue_all</t>
+          <t>20230511_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>20230514_dengue_all</t>
+          <t>20230512_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>20230515_dengue_all</t>
+          <t>20230514_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>20230516_dengue_all</t>
+          <t>20230515_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>20230517_dengue_all</t>
+          <t>20230516_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>20230518_dengue_all</t>
+          <t>20230517_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>20230519_dengue_all</t>
+          <t>20230518_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>20230520_dengue_all</t>
+          <t>20230519_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>20230521_dengue_all</t>
+          <t>20230520_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>20230522_dengue_all</t>
+          <t>20230521_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>20230523_dengue_all</t>
+          <t>20230522_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>20230524_dengue_all</t>
+          <t>20230523_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>20230525_dengue_all</t>
+          <t>20230524_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>20230526_dengue_all</t>
+          <t>20230525_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>20230527_dengue_all</t>
+          <t>20230526_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20230528_dengue_all</t>
+          <t>20230527_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20230529_dengue_all</t>
+          <t>20230528_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>20230530_dengue_all</t>
+          <t>20230529_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20230531_dengue_all</t>
+          <t>20230530_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>20230601_dengue_all</t>
+          <t>20230531_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>20230602_dengue_all</t>
+          <t>20230601_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>20230603_dengue_all</t>
+          <t>20230602_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>20230604_dengue_all</t>
+          <t>20230603_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>20230605_dengue_all</t>
+          <t>20230604_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>20230606_dengue_all</t>
+          <t>20230605_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>20230607_dengue_all</t>
+          <t>20230606_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>20230608_dengue_all</t>
+          <t>20230607_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>20230609_dengue_all</t>
+          <t>20230608_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>20230610_dengue_all</t>
+          <t>20230609_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>20230611_dengue_all</t>
+          <t>20230610_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>20230612_dengue_all</t>
+          <t>20230611_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>20230613_dengue_all</t>
+          <t>20230612_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>20230614_dengue_all</t>
+          <t>20230613_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>20230615_dengue_all</t>
+          <t>20230614_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>20230616_dengue_all</t>
+          <t>20230615_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>20230617_dengue_all</t>
+          <t>20230616_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>20230618_dengue_all</t>
+          <t>20230617_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>20230619_dengue_all</t>
+          <t>20230618_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>20230620_dengue_all</t>
+          <t>20230619_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>20230621_dengue_all</t>
+          <t>20230620_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>20230622_dengue_all</t>
+          <t>20230621_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>20230623_dengue_all</t>
+          <t>20230622_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>20230624_dengue_all</t>
+          <t>20230623_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>20230625_dengue_all</t>
+          <t>20230624_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>20230626_dengue_all</t>
+          <t>20230625_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>20230627_dengue_all</t>
+          <t>20230626_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>20230628_dengue_all</t>
+          <t>20230627_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>20230629_dengue_all</t>
+          <t>20230628_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>20230630_dengue_all</t>
+          <t>20230629_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>20230701_dengue_all</t>
+          <t>20230630_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>20230702_dengue_all</t>
+          <t>20230701_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>20230703_dengue_all</t>
+          <t>20230702_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>20230704_dengue_all</t>
+          <t>20230703_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>20230705_dengue_all</t>
+          <t>20230704_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>20230706_dengue_all</t>
+          <t>20230705_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>20230707_dengue_all</t>
+          <t>20230706_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>20230708_dengue_all</t>
+          <t>20230707_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>20230709_dengue_all</t>
+          <t>20230708_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>20230710_dengue_all</t>
+          <t>20230709_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>20230711_dengue_all</t>
+          <t>20230710_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>20230712_dengue_all</t>
+          <t>20230711_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>20230713_dengue_all</t>
+          <t>20230712_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>20230714_dengue_all</t>
+          <t>20230713_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>20230715_dengue_all</t>
+          <t>20230714_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>20230716_dengue_all</t>
+          <t>20230715_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>20230717_dengue_all</t>
+          <t>20230716_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>20230718_dengue_all</t>
+          <t>20230717_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>20230719_dengue_all</t>
+          <t>20230718_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>20230720_dengue_all</t>
+          <t>20230719_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>20230721_dengue_all</t>
+          <t>20230720_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>20230722_dengue_all</t>
+          <t>20230721_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>20230723_dengue_all</t>
+          <t>20230722_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>20230725_dengue_all</t>
+          <t>20230723_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>20230726_dengue_all</t>
+          <t>20230725_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>20230727_dengue_all</t>
+          <t>20230726_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>20230728_dengue_all</t>
+          <t>20230727_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>20230729_dengue_all</t>
+          <t>20230728_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Dengue_20190901</t>
+          <t>20230729_dengue_all</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Dengue_20190902</t>
+          <t>Dengue_20190901</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Dengue_20190903</t>
+          <t>Dengue_20190902</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Dengue_20190906</t>
+          <t>Dengue_20190903</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Dengue_20190907</t>
+          <t>Dengue_20190906</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Dengue_20190908</t>
+          <t>Dengue_20190907</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Dengue_20190910</t>
+          <t>Dengue_20190908</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Dengue_20190911</t>
+          <t>Dengue_20190910</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Dengue_20190912</t>
+          <t>Dengue_20190911</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Dengue_20190913</t>
+          <t>Dengue_20190912</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Dengue_20190914</t>
+          <t>Dengue_20190913</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Dengue_20190915</t>
+          <t>Dengue_20190914</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Dengue_20190916</t>
+          <t>Dengue_20190915</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Dengue_20190917</t>
+          <t>Dengue_20190916</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Dengue_20190918</t>
+          <t>Dengue_20190917</t>
         </is>
       </c>
     </row>
